--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08593962-2BFE-4E93-AEB5-DA54DE395A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202AD92-4B06-47BE-865B-E73460698B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FA63D15C-1FB3-42BF-8925-73EE09E32D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>LGA</t>
   </si>
@@ -57,121 +57,127 @@
     <t>SITE IDS</t>
   </si>
   <si>
-    <t>Akamkpa</t>
-  </si>
-  <si>
-    <t>Aking</t>
-  </si>
-  <si>
     <t>CRS_AKA_M_001</t>
   </si>
   <si>
-    <t>Akwa Ibami</t>
-  </si>
-  <si>
     <t>CRS_AKA_M_002</t>
   </si>
   <si>
-    <t>Ekang</t>
-  </si>
-  <si>
     <t>CRS_AKA_M_003</t>
   </si>
   <si>
-    <t>Ekong</t>
-  </si>
-  <si>
     <t>CRS_AKA_M_004</t>
   </si>
   <si>
-    <t>Mfamosing</t>
-  </si>
-  <si>
     <t>CRS_AKA_M_005</t>
   </si>
   <si>
-    <t>Boki</t>
-  </si>
-  <si>
-    <t>Okwa 11</t>
-  </si>
-  <si>
     <t>CRS_BOK_M_006</t>
   </si>
   <si>
-    <t>Ogoja</t>
-  </si>
-  <si>
-    <t>Okende IDP CAMP</t>
-  </si>
-  <si>
     <t>CRS_OGO_M_007</t>
   </si>
   <si>
-    <t>Yakurr</t>
-  </si>
-  <si>
-    <t>Agoi Ibami</t>
-  </si>
-  <si>
     <t>CRS_YAK_M_008</t>
   </si>
   <si>
-    <t>Abi</t>
-  </si>
-  <si>
-    <t>Afafanyi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Previous </t>
   </si>
   <si>
     <t>CRS_ABI_IA_009</t>
   </si>
   <si>
-    <t>Akpoha-Igbo</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_010</t>
   </si>
   <si>
-    <t>Bazohure</t>
-  </si>
-  <si>
     <t xml:space="preserve">New </t>
   </si>
   <si>
     <t>CRS_ABI_IA_011</t>
   </si>
   <si>
-    <t>Igbo Emaban</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_012</t>
   </si>
   <si>
-    <t>Ijom</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_013</t>
   </si>
   <si>
-    <t>Imina</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_014</t>
   </si>
   <si>
-    <t>Itigidi</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_015</t>
   </si>
   <si>
-    <t>Iyogue</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_016</t>
+  </si>
+  <si>
+    <t>AKAMKPA</t>
+  </si>
+  <si>
+    <t>BOKI</t>
+  </si>
+  <si>
+    <t>OGOJA</t>
+  </si>
+  <si>
+    <t>YAKURR</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>AKING</t>
+  </si>
+  <si>
+    <t>AKWA IBAMI</t>
+  </si>
+  <si>
+    <t>EKANG</t>
+  </si>
+  <si>
+    <t>EKONG</t>
+  </si>
+  <si>
+    <t>MFAMOSING</t>
+  </si>
+  <si>
+    <t>OKWA 11</t>
+  </si>
+  <si>
+    <t>OKENDE IDP CAMP</t>
+  </si>
+  <si>
+    <t>AGOI IBAMI</t>
+  </si>
+  <si>
+    <t>AFAFANYI</t>
+  </si>
+  <si>
+    <t>AKPOHA-IGBO</t>
+  </si>
+  <si>
+    <t>BAZOHURE</t>
+  </si>
+  <si>
+    <t>IGBO EMABAN</t>
+  </si>
+  <si>
+    <t>IJOM</t>
+  </si>
+  <si>
+    <t>IMINA</t>
+  </si>
+  <si>
+    <t>ITIGIDI</t>
+  </si>
+  <si>
+    <t>IYOGUE</t>
+  </si>
+  <si>
+    <t>CROSS RIVER</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -579,397 +585,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867BF8CB-BED3-4A6B-8239-72E54AFA9F62}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5.4389900000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.6389200000000006</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5.4389900000000004</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.6389200000000006</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="str">
-        <f>UPPER(TRIM(B2))</f>
-        <v>AKAMKPA</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5">
         <v>5.3359699999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>8.2360699999999998</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
         <v>5.6680599999999997</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>8.8171300000000006</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5">
         <v>5.2751000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>8.5562000000000005</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5">
         <v>5.1013900000000003</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>8.5023199999999992</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
         <v>6.3841099999999997</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>9.1817799999999998</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
         <v>5.7180099999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>8.1681500000000007</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8">
         <v>7.9915669999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>5.8870399999999998</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7.9915669999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5.9671459999999996</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8">
-        <v>7.9915669999999999</v>
-      </c>
-      <c r="E11" s="8">
-        <v>5.9671459999999996</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
         <v>7.9845072000000004</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>5.8429783000000004</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8">
         <v>8.1529229999999995</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>5.94998</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8">
         <v>7.9779603000000003</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>5.7983889</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8">
         <v>8.0835947000000008</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>5.9172938999999998</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8.016743</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.8996279999999999</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8">
-        <v>8.016743</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5.8996279999999999</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8">
         <v>7.9938560000000001</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>5.9419700000000004</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:Q18">
+    <sortCondition ref="P2:P18"/>
+    <sortCondition ref="Q2:Q18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202AD92-4B06-47BE-865B-E73460698B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6287248-8712-4FDB-8547-04F25C8F9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FA63D15C-1FB3-42BF-8925-73EE09E32D84}"/>
   </bookViews>
@@ -84,33 +84,9 @@
     <t xml:space="preserve">Previous </t>
   </si>
   <si>
-    <t>CRS_ABI_IA_009</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_010</t>
-  </si>
-  <si>
     <t xml:space="preserve">New </t>
   </si>
   <si>
-    <t>CRS_ABI_IA_011</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_012</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_013</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_014</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_015</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_016</t>
-  </si>
-  <si>
     <t>AKAMKPA</t>
   </si>
   <si>
@@ -178,13 +154,37 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_001</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_002</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_003</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_004</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_005</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_006</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_007</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -630,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>0</v>
@@ -650,13 +656,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5">
         <v>5.4389900000000004</v>
@@ -669,19 +675,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -689,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5">
         <v>5.3359699999999997</v>
@@ -708,16 +714,16 @@
         <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -725,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>5.6680599999999997</v>
@@ -744,16 +750,16 @@
         <v>9</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -761,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="5">
         <v>5.2751000000000001</v>
@@ -780,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -797,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5">
         <v>5.1013900000000003</v>
@@ -816,16 +822,16 @@
         <v>11</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -833,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <v>6.3841099999999997</v>
@@ -852,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -863,13 +869,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -878,10 +884,10 @@
         <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -889,13 +895,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5">
         <v>5.7180099999999996</v>
@@ -908,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -919,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
         <v>7.9915669999999999</v>
@@ -937,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -951,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8">
         <v>7.9915669999999999</v>
@@ -969,13 +975,13 @@
         <v>15</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -983,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8">
         <v>7.9845072000000004</v>
@@ -998,16 +1004,16 @@
         <v>5.8429783000000004</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1015,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8">
         <v>8.1529229999999995</v>
@@ -1033,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1047,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8">
         <v>7.9779603000000003</v>
@@ -1062,16 +1068,16 @@
         <v>5.7983889</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1079,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E15" s="8">
         <v>8.0835947000000008</v>
@@ -1094,16 +1100,16 @@
         <v>5.9172938999999998</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1111,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E16" s="8">
         <v>8.016743</v>
@@ -1129,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8">
         <v>7.9938560000000001</v>
@@ -1161,13 +1167,13 @@
         <v>15</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1175,6 +1181,7 @@
     <sortCondition ref="P2:P18"/>
     <sortCondition ref="Q2:Q18"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6287248-8712-4FDB-8547-04F25C8F9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43B34B-D707-4482-B34E-10B90AD2D2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FA63D15C-1FB3-42BF-8925-73EE09E32D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
   <si>
     <t>LGA</t>
   </si>
@@ -178,6 +178,57 @@
   </si>
   <si>
     <t>CRS_ABI_IA_008</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_017</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_018</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_019</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_020</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_021</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_022</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_023</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_024</t>
+  </si>
+  <si>
+    <t>CALABAR_SOUTH</t>
+  </si>
+  <si>
+    <t>AKPABUYO</t>
+  </si>
+  <si>
+    <t>ANANTIGHA</t>
+  </si>
+  <si>
+    <t>EFUT STREET</t>
+  </si>
+  <si>
+    <t>EKPENE ESUK</t>
+  </si>
+  <si>
+    <t>ELIOTT POINT</t>
+  </si>
+  <si>
+    <t>PARROT CROSSING</t>
+  </si>
+  <si>
+    <t>SMOKE FLATS</t>
+  </si>
+  <si>
+    <t>TECH SCHOOL ROAD</t>
   </si>
 </sst>
 </file>
@@ -255,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,6 +328,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867BF8CB-BED3-4A6B-8239-72E54AFA9F62}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,8 +842,8 @@
       <c r="M5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
+      <c r="N5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
@@ -825,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>21</v>
@@ -856,6 +910,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>21</v>
@@ -1137,11 +1197,11 @@
       <c r="H16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>28</v>
+      <c r="P16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1169,17 +1229,273 @@
       <c r="H17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>8.3719911000000007</v>
+      </c>
+      <c r="F18">
+        <v>4.7812431999999996</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>8.3290179999999996</v>
+      </c>
+      <c r="F19">
+        <v>4.8818229999999998</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>8.3163807999999992</v>
+      </c>
+      <c r="F20">
+        <v>4.9558410000000004</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>8.4016602999999996</v>
+      </c>
+      <c r="F21">
+        <v>4.8158832</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>8.2833810000000003</v>
+      </c>
+      <c r="F22">
+        <v>4.8742749999999999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>8.3583400000000001</v>
+      </c>
+      <c r="F23">
+        <v>4.8195139999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>8.3119899999999998</v>
+      </c>
+      <c r="F24">
+        <v>4.8490989999999998</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>8.3235200000000003</v>
+      </c>
+      <c r="F25">
+        <v>4.9184749999999999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:Q18">
-    <sortCondition ref="P2:P18"/>
-    <sortCondition ref="Q2:Q18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:Q25">
+    <sortCondition ref="P2:P25"/>
+    <sortCondition ref="Q2:Q25"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
